--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>NO</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Ilham Balebat</t>
+  </si>
+  <si>
+    <t>Yusuf Yoga</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -148,15 +154,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -164,6 +161,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,217 +493,247 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="14" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+      <c r="P4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>1500000</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="6">
+        <f>SUM(C6:N6)</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>50000</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="6">
+        <f t="shared" ref="P7:P10" si="0">SUM(C7:N7)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="6">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A5"/>

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>NO</t>
   </si>
@@ -90,6 +90,33 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Keterangan :</t>
+  </si>
+  <si>
+    <t>1. Deposit ke vip.bitcoin.co.id akan dilakukan selambat - lambatnya tanggal 10 , paling cepat tanggal 5 tiap bulannya</t>
+  </si>
+  <si>
+    <t>2. Minimal deposit masing - masing Rp. 50.000</t>
+  </si>
+  <si>
+    <t>3. Penarikan boleh kapan saja (jika dibutuhkan)</t>
+  </si>
+  <si>
+    <t>4. Karena dari vip.bitcoin.co.id setiap penarikan 1% dari total penarikan . Oleh karena itu direkomendasikan penarikan lebih baik bersama agar meminimalisir admin tiap investor</t>
+  </si>
+  <si>
+    <t>5. Hasil keuntungan akan terlihat sekitar 6 bulan sampai 1 tahun</t>
+  </si>
+  <si>
+    <t>6. Keuntungan akan diakumulasi (bagi rata) dari jumlah deposit investor, semakin banyak menabung semakin banyak keuntungan yang didapat</t>
+  </si>
+  <si>
+    <t>Faisal Ishak</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -99,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +138,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -154,20 +189,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,249 +532,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1500000</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="6">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3">
         <f>SUM(C6:N6)</f>
         <v>1500000</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>50000</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="6">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3">
         <f t="shared" ref="P7:P10" si="0">SUM(C7:N7)</f>
         <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>50000</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="6">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="6">
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2">
+        <v>300000</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:N4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -194,11 +194,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,112 +532,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -676,7 +676,9 @@
       <c r="C7" s="2">
         <v>50000</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>50000</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -690,7 +692,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="3">
         <f t="shared" ref="P7:P10" si="0">SUM(C7:N7)</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -520,7 +520,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="2">
-        <v>300000</v>
+        <v>800000</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -750,7 +750,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="3">
         <f t="shared" si="0"/>
-        <v>300000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>NO</t>
   </si>
@@ -95,9 +96,6 @@
     <t>Keterangan :</t>
   </si>
   <si>
-    <t>1. Deposit ke vip.bitcoin.co.id akan dilakukan selambat - lambatnya tanggal 10 , paling cepat tanggal 5 tiap bulannya</t>
-  </si>
-  <si>
     <t>2. Minimal deposit masing - masing Rp. 50.000</t>
   </si>
   <si>
@@ -117,6 +115,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1. Deposit ke vip.bitcoin.co.id akan dilakukan selambat - lambatnya tanggal 10 , paling cepat tanggal 5 tiap bulannya . Jika melebihi waktu dari deposit , maka deposit akan dilakukan dibulan berikutnya</t>
   </si>
 </sst>
 </file>
@@ -152,12 +156,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -187,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -202,6 +212,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,7 +537,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +632,7 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -649,11 +666,13 @@
       <c r="C6" s="2">
         <v>1500000</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>300000</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -663,7 +682,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3">
         <f>SUM(C6:N6)</f>
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -682,7 +701,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -711,7 +730,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -729,10 +748,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>800000</v>
@@ -740,7 +759,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -763,7 +782,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -776,6 +795,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="7">
+        <f>SUM(P6:P10)</f>
+        <v>2750000</v>
+      </c>
+    </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
@@ -783,32 +811,32 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -207,18 +207,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,7 +537,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,74 +549,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -632,7 +632,7 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -653,8 +653,8 @@
       <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -672,7 +672,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -701,7 +701,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -725,12 +725,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -740,7 +740,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="3">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -782,7 +782,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -799,9 +799,9 @@
       <c r="O11" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="5">
         <f>SUM(P6:P10)</f>
-        <v>2750000</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
         <v>1500000</v>
       </c>
       <c r="D6" s="2">
-        <v>300000</v>
+        <v>650000</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -682,7 +682,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3">
         <f>SUM(C6:N6)</f>
-        <v>1800000</v>
+        <v>2150000</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>50000</v>
       </c>
       <c r="D7" s="2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -711,7 +711,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="3">
         <f t="shared" ref="P7:P10" si="0">SUM(C7:N7)</f>
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
       </c>
       <c r="P11" s="5">
         <f>SUM(P6:P10)</f>
-        <v>2800000</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="2">
-        <v>800000</v>
+        <v>900000</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -769,7 +769,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="3">
         <f t="shared" si="0"/>
-        <v>800000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
       </c>
       <c r="P11" s="5">
         <f>SUM(P6:P10)</f>
-        <v>3200000</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -235,6 +235,957 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Persentase</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$6:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>_("Rp"* #,##0_);_("Rp"* \(#,##0\);_("Rp"* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2150000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>900000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D201-470F-9552-F7EA36B49A46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D89CB6C-936F-4AFC-9532-2E23CF2DC4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -536,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,5 +1802,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>NO</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>1. Deposit ke vip.bitcoin.co.id akan dilakukan selambat - lambatnya tanggal 10 , paling cepat tanggal 5 tiap bulannya . Jika melebihi waktu dari deposit , maka deposit akan dilakukan dibulan berikutnya</t>
+  </si>
+  <si>
+    <t>Belum Deposit :</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -219,6 +222,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -332,6 +341,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C207-4B97-A2E8-4B75590011F0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -351,6 +365,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C207-4B97-A2E8-4B75590011F0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -370,6 +389,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C207-4B97-A2E8-4B75590011F0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -389,6 +413,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C207-4B97-A2E8-4B75590011F0}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -453,7 +482,7 @@
                   <c:v>2150000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100000</c:v>
@@ -1485,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1676,7 @@
         <v>50000</v>
       </c>
       <c r="D7" s="2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1662,7 +1691,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="3">
         <f t="shared" ref="P7:P10" si="0">SUM(C7:N7)</f>
-        <v>150000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1752,7 +1781,7 @@
       </c>
       <c r="P11" s="5">
         <f>SUM(P6:P10)</f>
-        <v>3300000</v>
+        <v>3400000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1775,23 +1804,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>100000</v>
+      </c>
+      <c r="B23" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="P4:P5"/>

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>NO</t>
   </si>
@@ -123,7 +123,10 @@
     <t>1. Deposit ke vip.bitcoin.co.id akan dilakukan selambat - lambatnya tanggal 10 , paling cepat tanggal 5 tiap bulannya . Jika melebihi waktu dari deposit , maka deposit akan dilakukan dibulan berikutnya</t>
   </si>
   <si>
-    <t>Belum Deposit :</t>
+    <t xml:space="preserve">PENDING </t>
+  </si>
+  <si>
+    <t>Balebat</t>
   </si>
 </sst>
 </file>
@@ -217,18 +220,16 @@
     <xf numFmtId="42" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +483,7 @@
                   <c:v>2150000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100000</c:v>
@@ -1514,14 +1515,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="14" width="12.28515625" customWidth="1"/>
@@ -1529,74 +1531,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1633,8 +1635,8 @@
       <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1676,7 +1678,7 @@
         <v>50000</v>
       </c>
       <c r="D7" s="2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1691,7 +1693,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="3">
         <f t="shared" ref="P7:P10" si="0">SUM(C7:N7)</f>
-        <v>250000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1781,7 +1783,7 @@
       </c>
       <c r="P11" s="5">
         <f>SUM(P6:P10)</f>
-        <v>3400000</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1820,21 +1822,35 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="11">
         <v>100000</v>
       </c>
-      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="P4:P5"/>

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -223,13 +223,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,74 +1531,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1635,8 +1635,8 @@
       <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1830,11 +1830,11 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="11">
-        <v>100000</v>
+      <c r="B23" s="9">
+        <v>41000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>NO</t>
   </si>
@@ -108,9 +109,6 @@
     <t>5. Hasil keuntungan akan terlihat sekitar 6 bulan sampai 1 tahun</t>
   </si>
   <si>
-    <t>6. Keuntungan akan diakumulasi (bagi rata) dari jumlah deposit investor, semakin banyak menabung semakin banyak keuntungan yang didapat</t>
-  </si>
-  <si>
     <t>Faisal Ishak</t>
   </si>
   <si>
@@ -127,6 +125,18 @@
   </si>
   <si>
     <t>Balebat</t>
+  </si>
+  <si>
+    <t>6. Keuntungan akan diakumulasi (bagi rata) dari jumlah deposit investor setiap profit 0-50%, lebih dari 50% maka untuk admin invest . semakin banyak menabung semakin banyak keuntungan yang didapat</t>
+  </si>
+  <si>
+    <t>KATEGORI</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Client</t>
   </si>
 </sst>
 </file>
@@ -176,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,11 +209,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -228,6 +264,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,7 +525,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$6:$P$9</c:f>
+              <c:f>Sheet1!$Q$6:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>_("Rp"* #,##0_);_("Rp"* \(#,##0\);_("Rp"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1181,13 +1231,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1515,22 +1565,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="14" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="15" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -1548,8 +1599,9 @@
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
-    </row>
-    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -1567,18 +1619,21 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="10"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -1589,278 +1644,311 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="11"/>
+      <c r="P4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2">
         <v>1500000</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>650000</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="3">
-        <f>SUM(C6:N6)</f>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3">
+        <f>SUM(D6:O6)</f>
         <v>2150000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2">
         <v>50000</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>100000</v>
       </c>
-      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="3">
-        <f t="shared" ref="P7:P10" si="0">SUM(C7:N7)</f>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3">
+        <f t="shared" ref="Q7:Q10" si="0">SUM(D7:O7)</f>
         <v>150000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>100000</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="3">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>900000</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="3">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3">
         <f t="shared" si="0"/>
         <v>900000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>5</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="3">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="O11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="5">
-        <f>SUM(P6:P10)</f>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="5">
+        <f>SUM(Q6:Q10)</f>
         <v>3300000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="B23" s="9">
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91000</v>
+      </c>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
+      <c r="C26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="C4:N4"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="D4:O4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>NO</t>
   </si>
@@ -260,12 +260,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,6 +268,12 @@
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1567,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,79 +1582,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="17"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -1692,17 +1692,17 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="2">
@@ -1728,13 +1728,13 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="2">
@@ -1760,13 +1760,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="2">
@@ -1792,13 +1792,13 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
       <c r="B10" s="1"/>
@@ -1898,7 +1898,7 @@
       <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -1907,22 +1907,26 @@
       <c r="B23" s="9">
         <v>91000</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="15"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -124,9 +124,6 @@
     <t xml:space="preserve">PENDING </t>
   </si>
   <si>
-    <t>Balebat</t>
-  </si>
-  <si>
     <t>6. Keuntungan akan diakumulasi (bagi rata) dari jumlah deposit investor setiap profit 0-50%, lebih dari 50% maka untuk admin invest . semakin banyak menabung semakin banyak keuntungan yang didapat</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Client</t>
+  </si>
+  <si>
+    <t>Qisti</t>
   </si>
 </sst>
 </file>
@@ -239,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -279,6 +279,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,11 +395,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C207-4B97-A2E8-4B75590011F0}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -416,11 +414,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C207-4B97-A2E8-4B75590011F0}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -440,11 +433,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C207-4B97-A2E8-4B75590011F0}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -464,11 +452,25 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-C207-4B97-A2E8-4B75590011F0}"/>
-              </c:ext>
-            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -525,28 +527,31 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$6:$Q$9</c:f>
+              <c:f>Sheet1!$Q$6:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>_("Rp"* #,##0_);_("Rp"* \(#,##0\);_("Rp"* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2150000</c:v>
+                  <c:v>3222500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150000</c:v>
+                  <c:v>323500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100000</c:v>
+                  <c:v>249500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>900000</c:v>
+                  <c:v>1345500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D201-470F-9552-F7EA36B49A46}"/>
+              <c16:uniqueId val="{00000000-D300-48E2-A6A7-1E7FBCEC5CE1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1231,23 +1236,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D89CB6C-936F-4AFC-9532-2E23CF2DC4C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA2AAB2-1B26-4D5F-85AA-27C8BBF340F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1582,9 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="15" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="12.28515625" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1629,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>3</v>
@@ -1703,7 +1710,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>1500000</v>
@@ -1711,7 +1718,9 @@
       <c r="E6" s="2">
         <v>650000</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>1072500</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="7"/>
@@ -1724,7 +1733,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="3">
         <f>SUM(D6:O6)</f>
-        <v>2150000</v>
+        <v>3222500</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1735,7 +1744,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>50000</v>
@@ -1743,7 +1752,9 @@
       <c r="E7" s="2">
         <v>100000</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>173500</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="7"/>
@@ -1756,7 +1767,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="3">
         <f t="shared" ref="Q7:Q10" si="0">SUM(D7:O7)</f>
-        <v>150000</v>
+        <v>323500</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1767,7 +1778,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1775,7 +1786,9 @@
       <c r="E8" s="2">
         <v>100000</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>149500</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="7"/>
@@ -1788,7 +1801,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="3">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>249500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1799,7 +1812,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -1807,7 +1820,9 @@
       <c r="E9" s="2">
         <v>900000</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>445500</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="7"/>
@@ -1820,18 +1835,28 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="3">
         <f t="shared" si="0"/>
-        <v>900000</v>
+        <v>1345500</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50000</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="7"/>
@@ -1844,7 +1869,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1853,7 +1878,7 @@
       </c>
       <c r="Q11" s="5">
         <f>SUM(Q6:Q10)</f>
-        <v>3300000</v>
+        <v>5191000</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1888,7 +1913,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1901,21 +1926,13 @@
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="9">
-        <v>91000</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3">
-        <v>100000</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>NO</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Qisti</t>
+  </si>
+  <si>
+    <t>Ilham</t>
   </si>
 </sst>
 </file>
@@ -268,6 +271,9 @@
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,9 +285,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,6 +398,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7F84-4D00-8272-4F717962CCA1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -414,6 +422,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7F84-4D00-8272-4F717962CCA1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -433,6 +446,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7F84-4D00-8272-4F717962CCA1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -452,6 +470,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7F84-4D00-8272-4F717962CCA1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -471,6 +494,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7F84-4D00-8272-4F717962CCA1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1572,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,80 +1617,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1699,8 +1727,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1845,7 +1873,7 @@
       <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="2">
@@ -1926,8 +1954,12 @@
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="9">
+        <v>50000</v>
+      </c>
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>NO</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Qisti</t>
-  </si>
-  <si>
-    <t>Ilham</t>
   </si>
 </sst>
 </file>
@@ -563,7 +560,7 @@
                   <c:v>3222500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>323500</c:v>
+                  <c:v>373500</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>249500</c:v>
@@ -1600,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1778,7 @@
         <v>100000</v>
       </c>
       <c r="F7" s="2">
-        <v>173500</v>
+        <v>223500</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1795,7 +1792,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="3">
         <f t="shared" ref="Q7:Q10" si="0">SUM(D7:O7)</f>
-        <v>323500</v>
+        <v>373500</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1906,7 +1903,7 @@
       </c>
       <c r="Q11" s="5">
         <f>SUM(Q6:Q10)</f>
-        <v>5191000</v>
+        <v>5241000</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1954,12 +1951,8 @@
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="9">
-        <v>50000</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -560,7 +560,7 @@
                   <c:v>3222500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>373500</c:v>
+                  <c:v>398500</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>249500</c:v>
@@ -1598,7 +1598,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1778,7 +1778,7 @@
         <v>100000</v>
       </c>
       <c r="F7" s="2">
-        <v>223500</v>
+        <v>248500</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1792,7 +1792,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="3">
         <f t="shared" ref="Q7:Q10" si="0">SUM(D7:O7)</f>
-        <v>373500</v>
+        <v>398500</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="Q11" s="5">
         <f>SUM(Q6:Q10)</f>
-        <v>5241000</v>
+        <v>5266000</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>NO</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Qisti</t>
+  </si>
+  <si>
+    <t>Ilham</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1601,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,8 +1954,12 @@
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="9">
+        <v>25000</v>
+      </c>
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>NO</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Ilham</t>
+  </si>
+  <si>
+    <t>DATA TABUNGAN REAL TANPA PROFIT</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -274,6 +277,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -286,6 +292,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1598,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,87 +1620,86 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="15" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1727,8 +1736,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1977,8 +1986,260 @@
       <c r="B26" s="3"/>
       <c r="C26" s="13"/>
     </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="17"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>2150000</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="3">
+        <f>SUM(D42:O42)</f>
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>291000</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="3">
+        <f t="shared" ref="P43:P46" si="1">SUM(D43:O43)</f>
+        <v>291000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="3">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2">
+        <v>900000</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="3">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="3">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="3">
+        <f>SUM(P42:P46)</f>
+        <v>3591000</v>
+      </c>
+      <c r="Q47" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>NO</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>DATA TABUNGAN REAL TANPA PROFIT</t>
+  </si>
+  <si>
+    <t>Raka</t>
   </si>
 </sst>
 </file>
@@ -280,11 +283,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,10 +296,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,44 +1629,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -1672,7 +1675,7 @@
       <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -1699,7 +1702,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1972,8 +1975,12 @@
       <c r="C23" s="12"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
+        <v>100000</v>
+      </c>
       <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1987,25 +1994,25 @@
       <c r="C26" s="13"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
@@ -2014,7 +2021,7 @@
       <c r="B40" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="17" t="s">
@@ -2038,7 +2045,7 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
-      <c r="C41" s="19"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="15" t="s">
         <v>4</v>
       </c>
@@ -2230,16 +2237,10 @@
         <f>SUM(P42:P46)</f>
         <v>3591000</v>
       </c>
-      <c r="Q47" s="21"/>
+      <c r="Q47" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2248,6 +2249,12 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="profit" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
   <si>
     <t>NO</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>1. Deposit ke vip.bitcoin.co.id akan dilakukan selambat - lambatnya tanggal 10 , paling cepat tanggal 5 tiap bulannya . Jika melebihi waktu dari deposit , maka deposit akan dilakukan dibulan berikutnya</t>
-  </si>
-  <si>
     <t xml:space="preserve">PENDING </t>
   </si>
   <si>
@@ -146,6 +143,12 @@
   </si>
   <si>
     <t>Raka</t>
+  </si>
+  <si>
+    <t>DATA TABUNGAN ONLY PROFIT</t>
+  </si>
+  <si>
+    <t>1. Deposit akan dilakukan selambat - lambatnya tanggal 10 , paling cepat tanggal 5 tiap bulannya . Jika melebihi waktu dari deposit , maka deposit akan dilakukan dibulan berikutnya</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -287,8 +290,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,7 +302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1613,7 +1619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1629,80 +1635,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1739,8 +1745,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1750,7 +1756,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>1500000</v>
@@ -1784,7 +1790,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>50000</v>
@@ -1818,7 +1824,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1852,7 +1858,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
@@ -1883,10 +1889,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -1928,7 +1934,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1953,7 +1959,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,13 +1967,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="9">
         <v>25000</v>
@@ -1976,7 +1982,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3">
         <v>100000</v>
@@ -1994,58 +2000,58 @@
       <c r="C26" s="13"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
+      <c r="A38" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="C40" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="15" t="s">
         <v>4</v>
       </c>
@@ -2082,7 +2088,7 @@
       <c r="O41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="17"/>
+      <c r="P41" s="19"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
@@ -2092,7 +2098,7 @@
         <v>18</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
@@ -2121,7 +2127,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2">
@@ -2150,7 +2156,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
@@ -2179,7 +2185,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
@@ -2205,10 +2211,10 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
@@ -2241,6 +2247,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2249,12 +2261,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2264,12 +2270,284 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>1072500</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3">
+        <f>SUM(D5:O5)</f>
+        <v>1072500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>82500</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6:P9" si="0">SUM(D6:O6)</f>
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>49500</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3">
+        <f t="shared" si="0"/>
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>445500</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3">
+        <f t="shared" si="0"/>
+        <v>445500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="3">
+        <f>SUM(P5:P9)</f>
+        <v>1650000</v>
+      </c>
+      <c r="Q10" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="P3:P4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
   <si>
     <t>NO</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>1. Deposit akan dilakukan selambat - lambatnya tanggal 10 , paling cepat tanggal 5 tiap bulannya . Jika melebihi waktu dari deposit , maka deposit akan dilakukan dibulan berikutnya</t>
+  </si>
+  <si>
+    <t>Dindin</t>
+  </si>
+  <si>
+    <t>Qisthi</t>
   </si>
 </sst>
 </file>
@@ -290,11 +296,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -302,7 +308,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1619,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,79 +1641,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -1745,8 +1751,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1889,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>34</v>
@@ -1990,67 +1996,75 @@
       <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2000000</v>
+      </c>
       <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100000</v>
+      </c>
       <c r="C26" s="13"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19" t="s">
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="21"/>
       <c r="D41" s="15" t="s">
         <v>4</v>
@@ -2088,7 +2102,7 @@
       <c r="O41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="19"/>
+      <c r="P41" s="18"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
@@ -2247,12 +2261,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2261,6 +2269,12 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2294,57 +2308,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="21"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
@@ -2382,7 +2396,7 @@
       <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="19"/>
+      <c r="P4" s="18"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
   <si>
     <t>NO</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Qisthi</t>
+  </si>
+  <si>
+    <t>Siti</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -253,11 +256,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -296,11 +310,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,9 +322,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1625,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,79 +1660,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="21"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -1751,8 +1770,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1925,6 +1944,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
       <c r="P11" t="s">
         <v>29</v>
       </c>
@@ -2013,58 +2033,66 @@
       </c>
       <c r="C26" s="13"/>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="25">
+        <v>50000</v>
+      </c>
+    </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="21"/>
       <c r="D41" s="15" t="s">
         <v>4</v>
@@ -2102,7 +2130,7 @@
       <c r="O41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="18"/>
+      <c r="P41" s="19"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
@@ -2261,6 +2289,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2269,12 +2303,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2308,57 +2336,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="21"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
@@ -2396,7 +2424,7 @@
       <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="18"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>NO</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Siti</t>
+  </si>
+  <si>
+    <t>Agung</t>
   </si>
 </sst>
 </file>
@@ -310,11 +313,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,14 +330,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1644,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,80 +1663,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="21"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1770,8 +1773,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1944,7 +1947,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="18"/>
       <c r="P11" t="s">
         <v>29</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="3">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="C25" s="13"/>
     </row>
@@ -2034,11 +2037,19 @@
       <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="20">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="20">
+        <v>200000</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -2063,37 +2074,37 @@
       <c r="Q38" s="22"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19" t="s">
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="15" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +2141,7 @@
       <c r="O41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="19"/>
+      <c r="P41" s="21"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
@@ -2289,12 +2300,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2303,6 +2308,12 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2357,37 +2368,37 @@
       <c r="Q1" s="22"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="21"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2424,7 +2435,7 @@
       <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="19"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>NO</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Agung</t>
+  </si>
+  <si>
+    <t>Andre</t>
   </si>
 </sst>
 </file>
@@ -318,11 +321,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,7 +333,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1648,7 +1651,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,79 +1666,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="24"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -1773,8 +1776,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -2052,58 +2055,66 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="20">
+        <v>200000</v>
+      </c>
+    </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21" t="s">
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="24"/>
       <c r="D41" s="15" t="s">
         <v>4</v>
@@ -2141,7 +2152,7 @@
       <c r="O41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="21"/>
+      <c r="P41" s="22"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
@@ -2300,6 +2311,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2308,12 +2325,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2347,57 +2358,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="24"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
@@ -2435,7 +2446,7 @@
       <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="21"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>NO</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Andre</t>
+  </si>
+  <si>
+    <t>Zen</t>
+  </si>
+  <si>
+    <t>Rhozi</t>
   </si>
 </sst>
 </file>
@@ -321,11 +327,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,7 +339,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1650,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,79 +1672,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="24"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -1776,8 +1782,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -2063,58 +2069,80 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="20">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="20">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <f>SUM(B23:B31)</f>
+        <v>4225000</v>
+      </c>
+    </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22" t="s">
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="24"/>
       <c r="D41" s="15" t="s">
         <v>4</v>
@@ -2152,7 +2180,7 @@
       <c r="O41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="22"/>
+      <c r="P41" s="21"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
@@ -2311,12 +2339,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2325,6 +2347,12 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2358,57 +2386,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="24"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
@@ -2446,7 +2474,7 @@
       <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>NO</t>
   </si>
@@ -169,7 +169,13 @@
     <t>Zen</t>
   </si>
   <si>
-    <t>Rhozi</t>
+    <t>Adit</t>
+  </si>
+  <si>
+    <t>Rahmi</t>
+  </si>
+  <si>
+    <t>Barrur</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1663,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2029,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="3">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="C24" s="13"/>
     </row>
@@ -2032,7 +2038,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="3">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="C25" s="13"/>
     </row>
@@ -2041,7 +2047,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="3">
-        <v>100000</v>
+        <v>600000</v>
       </c>
       <c r="C26" s="13"/>
     </row>
@@ -2079,16 +2085,32 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="20">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="20">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="5">
-        <f>SUM(B23:B31)</f>
-        <v>4225000</v>
+      <c r="B32" s="3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="20">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <f>SUM(B23:B33)</f>
+        <v>7025000</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -333,11 +333,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,7 +345,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,79 +1678,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="24"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -1788,8 +1788,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -2088,7 +2088,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="20">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2110,61 +2110,61 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <f>SUM(B23:B33)</f>
-        <v>7025000</v>
+        <v>7525000</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21" t="s">
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="24"/>
       <c r="D41" s="15" t="s">
         <v>4</v>
@@ -2202,7 +2202,7 @@
       <c r="O41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="21"/>
+      <c r="P41" s="22"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
@@ -2361,6 +2361,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2369,12 +2375,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2408,57 +2408,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="24"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
@@ -2496,7 +2496,7 @@
       <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="21"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -333,11 +333,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,7 +345,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1662,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,79 +1678,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="24"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -1788,8 +1788,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -2088,7 +2088,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="20">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2110,61 +2110,61 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <f>SUM(B23:B33)</f>
-        <v>7525000</v>
+        <v>8025000</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22" t="s">
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="24"/>
       <c r="D41" s="15" t="s">
         <v>4</v>
@@ -2202,7 +2202,7 @@
       <c r="O41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="22"/>
+      <c r="P41" s="21"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
@@ -2361,12 +2361,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2375,6 +2369,12 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2408,57 +2408,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="24"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
@@ -2496,7 +2496,7 @@
       <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>NO</t>
   </si>
@@ -79,9 +79,6 @@
     <t>September</t>
   </si>
   <si>
-    <t>PROFIT</t>
-  </si>
-  <si>
     <t>Barrur Rhozi</t>
   </si>
   <si>
@@ -176,6 +173,12 @@
   </si>
   <si>
     <t>Barrur</t>
+  </si>
+  <si>
+    <t>PERKIRAAN PROFIT</t>
+  </si>
+  <si>
+    <t>PROFIT NOW</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +213,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +232,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -333,11 +356,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,9 +368,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1662,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:Q38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,84 +1701,86 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="12.28515625" customWidth="1"/>
+    <col min="7" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.28515625" customWidth="1"/>
     <col min="16" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>21</v>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="24"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
@@ -1788,18 +1818,18 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>1500000</v>
@@ -1830,10 +1860,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>50000</v>
@@ -1864,10 +1894,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1898,13 +1928,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E9" s="2">
         <v>900000</v>
@@ -1932,10 +1962,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -1964,7 +1994,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="P11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="5">
         <f>SUM(Q6:Q10)</f>
@@ -1973,127 +2003,135 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="M22" s="27">
+        <v>2633000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="9">
         <v>25000</v>
       </c>
       <c r="C23" s="12"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3">
         <v>200000</v>
       </c>
       <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3">
         <v>3000000</v>
       </c>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3">
         <v>600000</v>
       </c>
       <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="20">
         <v>50000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="20">
         <v>200000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="20">
         <v>200000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="20">
         <v>50000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="20">
         <v>3000000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3">
         <v>500000</v>
@@ -2101,7 +2139,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="20">
         <v>200000</v>
@@ -2114,57 +2152,57 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
+      <c r="A38" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21" t="s">
-        <v>21</v>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="24"/>
       <c r="D41" s="15" t="s">
         <v>4</v>
@@ -2202,17 +2240,17 @@
       <c r="O41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="21"/>
+      <c r="P41" s="22"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
@@ -2238,10 +2276,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2">
@@ -2267,10 +2305,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
@@ -2296,10 +2334,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
@@ -2325,10 +2363,10 @@
         <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
@@ -2351,7 +2389,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P47" s="3">
         <f>SUM(P42:P46)</f>
@@ -2361,6 +2399,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2369,12 +2413,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:O40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2408,57 +2446,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="A1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21" t="s">
-        <v>21</v>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="24"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
@@ -2496,17 +2534,17 @@
       <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="21"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2532,10 +2570,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2561,10 +2599,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2590,10 +2628,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2619,10 +2657,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2645,7 +2683,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P10" s="3">
         <f>SUM(P5:P9)</f>

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
   <si>
     <t>NO</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>PROFIT NOW</t>
+  </si>
+  <si>
+    <t>Eka</t>
   </si>
 </sst>
 </file>
@@ -356,11 +359,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,14 +373,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,7 +1365,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1688,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,80 +1711,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="26" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1818,8 +1821,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="22"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -2037,7 +2040,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="22" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2049,7 +2052,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="11"/>
-      <c r="M22" s="27">
+      <c r="M22" s="21">
         <v>2633000</v>
       </c>
     </row>
@@ -2125,9 +2128,7 @@
       <c r="A31" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="20">
-        <v>3000000</v>
-      </c>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
@@ -2139,151 +2140,130 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B34" s="20">
         <v>200000</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
-        <f>SUM(B23:B33)</f>
-        <v>8025000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <f>SUM(B23:B34)</f>
+        <v>5125000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B41" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C41" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D41" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="15" t="s">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F42" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G42" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H42" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="J42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="K42" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L41" s="15" t="s">
+      <c r="L42" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M41" s="15" t="s">
+      <c r="M42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="N42" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O41" s="15" t="s">
+      <c r="O42" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="22"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2">
-        <v>2150000</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="3">
-        <f>SUM(D42:O42)</f>
-        <v>2150000</v>
-      </c>
+      <c r="P42" s="23"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2">
-        <v>291000</v>
+        <v>2150000</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2296,23 +2276,23 @@
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="3">
-        <f t="shared" ref="P43:P46" si="1">SUM(D43:O43)</f>
-        <v>291000</v>
+        <f>SUM(D43:O43)</f>
+        <v>2150000</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
-        <v>200000</v>
+        <v>291000</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2325,23 +2305,23 @@
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="3">
-        <f t="shared" si="1"/>
-        <v>200000</v>
+        <f t="shared" ref="P44:P47" si="1">SUM(D44:O44)</f>
+        <v>291000</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
-        <v>900000</v>
+        <v>200000</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2355,22 +2335,22 @@
       <c r="O45" s="2"/>
       <c r="P45" s="3">
         <f t="shared" si="1"/>
-        <v>900000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
-        <v>50000</v>
+        <v>900000</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -2384,27 +2364,50 @@
       <c r="O46" s="2"/>
       <c r="P46" s="3">
         <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O47" s="1" t="s">
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="3">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P47" s="3">
-        <f>SUM(P42:P46)</f>
+      <c r="P48" s="3">
+        <f>SUM(P43:P47)</f>
         <v>3591000</v>
       </c>
-      <c r="Q47" s="16"/>
+      <c r="Q48" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:O40"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2413,6 +2416,12 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="A39:Q39"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:O41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2446,58 +2455,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2534,7 +2543,7 @@
       <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
   <si>
     <t>NO</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>Eka</t>
+  </si>
+  <si>
+    <t>Angga</t>
+  </si>
+  <si>
+    <t>Danil</t>
+  </si>
+  <si>
+    <t>Robby</t>
+  </si>
+  <si>
+    <t>Putra</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1377,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1691,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D4" sqref="D4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,7 +2140,9 @@
       <c r="A31" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20">
+        <v>1500000</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
@@ -2148,238 +2162,154 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="20">
+      <c r="B38" s="20">
         <v>200000</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
-        <f>SUM(B23:B34)</f>
-        <v>5125000</v>
-      </c>
-    </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="B39" s="3">
+        <f>SUM(B23:B38)</f>
+        <v>7025000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B45" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C45" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D45" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="15" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E46" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F46" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H46" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="J46" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="15" t="s">
+      <c r="K46" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="15" t="s">
+      <c r="L46" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M42" s="15" t="s">
+      <c r="M46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N42" s="15" t="s">
+      <c r="N46" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O42" s="15" t="s">
+      <c r="O46" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P42" s="23"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2">
-        <v>2150000</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="3">
-        <f>SUM(D43:O43)</f>
-        <v>2150000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2">
-        <v>291000</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="3">
-        <f t="shared" ref="P44:P47" si="1">SUM(D44:O44)</f>
-        <v>291000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>3</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="3">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>4</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
-        <v>900000</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="3">
-        <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
+      <c r="P46" s="23"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2">
-        <v>50000</v>
+        <v>2150000</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -2392,19 +2322,135 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="3">
+        <f>SUM(D47:O47)</f>
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>291000</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="3">
+        <f t="shared" ref="P48:P51" si="1">SUM(D48:O48)</f>
+        <v>291000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="3">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <v>900000</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="3">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O48" s="1" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="3">
-        <f>SUM(P43:P47)</f>
+      <c r="P52" s="3">
+        <f>SUM(P47:P51)</f>
         <v>3591000</v>
       </c>
-      <c r="Q48" s="16"/>
+      <c r="Q52" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2416,12 +2462,12 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="A39:Q39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="A43:Q43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:O45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -172,9 +172,6 @@
     <t>Rahmi</t>
   </si>
   <si>
-    <t>Barrur</t>
-  </si>
-  <si>
     <t>PERKIRAAN PROFIT</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>Putra</t>
+  </si>
+  <si>
+    <t>Fahri</t>
   </si>
 </sst>
 </file>
@@ -373,11 +373,14 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,11 +388,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1705,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:O4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,80 +1723,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="23" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1833,8 +1833,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="23"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -2053,7 +2053,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M21" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2138,10 +2138,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B31" s="20">
-        <v>1500000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2154,7 +2154,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3">
         <v>100000</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="3">
         <v>50000</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="3">
         <v>200000</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="3">
         <v>100000</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3">
         <v>50000</v>
@@ -2203,62 +2203,62 @@
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <f>SUM(B23:B38)</f>
-        <v>7025000</v>
+        <v>5625000</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23" t="s">
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="15" t="s">
         <v>4</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="O46" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="23"/>
+      <c r="P46" s="24"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
@@ -2454,6 +2454,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="A43:Q43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:O45"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2462,12 +2468,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="A43:Q43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:O45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2501,58 +2501,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="23"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t>NO</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Faisal Ishak</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -190,10 +187,13 @@
     <t>Robby</t>
   </si>
   <si>
-    <t>Putra</t>
-  </si>
-  <si>
     <t>Fahri</t>
+  </si>
+  <si>
+    <t>Kanda</t>
+  </si>
+  <si>
+    <t>BR</t>
   </si>
 </sst>
 </file>
@@ -263,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -312,22 +312,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -366,21 +355,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -388,8 +371,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,13 +1357,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1703,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,86 +1703,86 @@
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12.28515625" customWidth="1"/>
     <col min="16" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="24" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1833,8 +1819,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="24"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="22"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -1844,7 +1830,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>1500000</v>
@@ -1878,7 +1864,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>50000</v>
@@ -1900,7 +1886,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="3">
-        <f t="shared" ref="Q7:Q10" si="0">SUM(D7:O7)</f>
+        <f t="shared" ref="Q7:Q12" si="0">SUM(D7:O7)</f>
         <v>398500</v>
       </c>
     </row>
@@ -1912,7 +1898,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1946,10 +1932,10 @@
         <v>26</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
       </c>
       <c r="E9" s="2">
         <v>900000</v>
@@ -1977,10 +1963,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -2007,459 +1993,929 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="P11" t="s">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>7</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>8</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>9</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>10</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>11</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>12</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>13</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>14</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>15</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>16</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>17</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>18</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>19</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q25" s="5">
+        <f>SUM(Q6:Q24)</f>
+        <v>5266000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="5">
-        <f>SUM(Q6:Q10)</f>
-        <v>5266000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C35" s="11"/>
+      <c r="M35" s="20">
+        <v>2633000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9">
+        <v>25000</v>
+      </c>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B38" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3">
+        <v>600000</v>
+      </c>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="19">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="19">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="19">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="19">
+        <v>200000</v>
+      </c>
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <f>SUM(B36:B52)</f>
+        <v>8725000</v>
+      </c>
+      <c r="M53" s="5">
+        <f>M35+Q25+B53+N50</f>
+        <v>16624000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="23"/>
+      <c r="P57" s="23"/>
+      <c r="Q57" s="23"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M21" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="D59" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P60" s="22"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
         <v>1</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="M22" s="21">
-        <v>2633000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="9">
-        <v>25000</v>
-      </c>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="B61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2">
+        <v>2150000</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="3">
+        <f>SUM(D61:O61)</f>
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2">
+        <v>291000</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="3">
+        <f t="shared" ref="P62:P65" si="1">SUM(D62:O62)</f>
+        <v>291000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2">
         <v>200000</v>
       </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3">
-        <v>600000</v>
-      </c>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="20">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="20">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="20">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="20">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="20">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="20">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <f>SUM(B23:B38)</f>
-        <v>5625000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N46" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O46" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P46" s="24"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2">
-        <v>2150000</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="3">
-        <f>SUM(D47:O47)</f>
-        <v>2150000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>2</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2">
-        <v>291000</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="3">
-        <f t="shared" ref="P48:P51" si="1">SUM(D48:O48)</f>
-        <v>291000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>3</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="3">
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
         <v>4</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2">
+      <c r="C64" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2">
         <v>900000</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="3">
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="3">
         <f t="shared" si="1"/>
         <v>900000</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
         <v>5</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="14" t="s">
+      <c r="B65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2">
+      <c r="C65" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2">
         <v>50000</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="3">
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O52" s="1" t="s">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P52" s="3">
-        <f>SUM(P47:P51)</f>
+      <c r="P66" s="3">
+        <f>SUM(P61:P65)</f>
         <v>3591000</v>
       </c>
-      <c r="Q52" s="16"/>
+      <c r="Q66" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="A43:Q43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:O45"/>
+    <mergeCell ref="A57:Q57"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="Q4:Q5"/>
@@ -2468,6 +2924,11 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2501,58 +2962,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="A1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="17" t="s">
         <v>4</v>
       </c>
@@ -2589,7 +3050,7 @@
       <c r="O4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="24"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -2599,7 +3060,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2628,7 +3089,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2657,7 +3118,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2686,7 +3147,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2712,10 +3173,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="profit" sheetId="2" r:id="rId2"/>
+    <sheet name="tabungan+profit" sheetId="1" r:id="rId1"/>
+    <sheet name="tabungan" sheetId="3" r:id="rId2"/>
+    <sheet name="profit" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="61">
   <si>
     <t>NO</t>
   </si>
@@ -193,7 +194,22 @@
     <t>Kanda</t>
   </si>
   <si>
-    <t>BR</t>
+    <t>Nurroby</t>
+  </si>
+  <si>
+    <t>Arif</t>
+  </si>
+  <si>
+    <t>Yusuf</t>
+  </si>
+  <si>
+    <t>Dom</t>
+  </si>
+  <si>
+    <t>Barrur</t>
+  </si>
+  <si>
+    <t>Indra</t>
   </si>
 </sst>
 </file>
@@ -237,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -348,9 +370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -365,17 +384,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,24 +690,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$6:$Q$10</c:f>
+              <c:f>'tabungan+profit'!$Q$6:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>_("Rp"* #,##0_);_("Rp"* \(#,##0\);_("Rp"* "-"_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3222500</c:v>
+                  <c:v>7933750</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>398500</c:v>
+                  <c:v>622750</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>249500</c:v>
+                  <c:v>574250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1345500</c:v>
+                  <c:v>2018250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v>1500000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,14 +1401,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1689,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,1269 +1745,19 @@
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="12.28515625" customWidth="1"/>
+    <col min="5" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-    </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="22"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1500000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>650000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1072500</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="3">
-        <f>SUM(D6:O6)</f>
-        <v>3222500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>248500</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="3">
-        <f t="shared" ref="Q7:Q12" si="0">SUM(D7:O7)</f>
-        <v>398500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>149500</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="3">
-        <f t="shared" si="0"/>
-        <v>249500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>900000</v>
-      </c>
-      <c r="F9" s="2">
-        <v>445500</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="3">
-        <f t="shared" si="0"/>
-        <v>1345500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>50000</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="3">
-        <f t="shared" si="0"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>6</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>7</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>8</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>9</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>10</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>11</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>12</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>13</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>14</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>15</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>16</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>17</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>18</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>19</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q25" s="5">
-        <f>SUM(Q6:Q24)</f>
-        <v>5266000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="M35" s="20">
-        <v>2633000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="9">
-        <v>25000</v>
-      </c>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>200000</v>
-      </c>
-      <c r="C37" s="13"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="3">
-        <v>600000</v>
-      </c>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="19">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="19">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="19">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="19">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="19">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="3">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="3">
-        <v>3100000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="19">
-        <v>200000</v>
-      </c>
-      <c r="M52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="3">
-        <f>SUM(B36:B52)</f>
-        <v>8725000</v>
-      </c>
-      <c r="M53" s="5">
-        <f>M35+Q25+B53+N50</f>
-        <v>16624000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L60" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P60" s="22"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
-        <v>1</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2">
-        <v>2150000</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="3">
-        <f>SUM(D61:O61)</f>
-        <v>2150000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>2</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2">
-        <v>291000</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="3">
-        <f t="shared" ref="P62:P65" si="1">SUM(D62:O62)</f>
-        <v>291000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
-        <v>3</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="3">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
-        <v>4</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2">
-        <v>900000</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="3">
-        <f t="shared" si="1"/>
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
-        <v>5</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="3">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P66" s="3">
-        <f>SUM(P61:P65)</f>
-        <v>3591000</v>
-      </c>
-      <c r="Q66" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A57:Q57"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="D4:O4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="P59:P60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:O59"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>37</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2980,77 +1774,1512 @@
       <c r="N1" s="23"/>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
+    </row>
+    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="24"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>650000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1072500</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4711250</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="3">
+        <f>SUM(D6:O6)</f>
+        <v>7933750</v>
+      </c>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>248500</v>
+      </c>
+      <c r="G7" s="2">
+        <v>224250</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3">
+        <f t="shared" ref="Q7:Q28" si="0">SUM(D7:O7)</f>
+        <v>622750</v>
+      </c>
+      <c r="R7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>149500</v>
+      </c>
+      <c r="G8" s="2">
+        <v>324750</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3">
+        <f t="shared" si="0"/>
+        <v>574250</v>
+      </c>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>900000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>445500</v>
+      </c>
+      <c r="G9" s="2">
+        <v>672750</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>2018250</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1450000</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3">
+        <f t="shared" si="0"/>
+        <v>1500000</v>
+      </c>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>7</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="3">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>8</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="3">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>10</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>11</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>12</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>13</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>14</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>15</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>16</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>17</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>18</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>19</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>20</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>21</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>22</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>23</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="3">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q29" s="5">
+        <f>SUM(Q6:Q28)</f>
+        <v>18249000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="M39" s="19">
+        <v>2633000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="9">
+        <v>25000</v>
+      </c>
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1425000</v>
+      </c>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="18">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="18">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="18">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="18">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="18">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="3">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="18">
+        <v>200000</v>
+      </c>
+      <c r="M61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <f>SUM(B40:B61)</f>
+        <v>10350000</v>
+      </c>
+      <c r="M62" s="5">
+        <f>M39+Q29+B62+N58</f>
+        <v>31232000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="31"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="31"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="31"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="31"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="31"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:O68"/>
+    <mergeCell ref="A66:Q66"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="D4:O4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="17" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -3062,12 +3291,18 @@
       <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2150000</v>
+      </c>
       <c r="F5" s="2">
-        <v>1072500</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3100000</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="7"/>
       <c r="J5" s="2"/>
@@ -3078,7 +3313,946 @@
       <c r="O5" s="2"/>
       <c r="P5" s="3">
         <f>SUM(D5:O5)</f>
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>291000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3">
+        <f t="shared" ref="P6:P27" si="0">SUM(D6:O6)</f>
+        <v>341000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>900000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1425000</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3">
+        <f>SUM(D9:O9)</f>
+        <v>1475000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3">
+        <f t="shared" ref="P10" si="1">SUM(D10:O10)</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>7</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>8</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>10</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>12</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>13</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>500000</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>14</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>15</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>16</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>17</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>18</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>19</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>20</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="3">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>21</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="3">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>22</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="3">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>23</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="3">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="5">
+        <f>SUM(P5:P27)</f>
+        <v>13966000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:O3"/>
+    <mergeCell ref="P3:P4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>1072500</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1611250</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3">
+        <f>SUM(D5:O5)</f>
+        <v>2683750</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3096,7 +4270,9 @@
       <c r="F6" s="2">
         <v>82500</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>199250</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="7"/>
       <c r="J6" s="2"/>
@@ -3107,7 +4283,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="3">
         <f t="shared" ref="P6:P9" si="0">SUM(D6:O6)</f>
-        <v>82500</v>
+        <v>281750</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3125,7 +4301,9 @@
       <c r="F7" s="2">
         <v>49500</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>124750</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="7"/>
       <c r="J7" s="2"/>
@@ -3136,7 +4314,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="3">
         <f t="shared" si="0"/>
-        <v>49500</v>
+        <v>174250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3154,7 +4332,9 @@
       <c r="F8" s="2">
         <v>445500</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>672750</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="7"/>
       <c r="J8" s="2"/>
@@ -3165,7 +4345,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="3">
         <f t="shared" si="0"/>
-        <v>445500</v>
+        <v>1118250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3183,7 +4363,9 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>25000</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="7"/>
       <c r="J9" s="2"/>
@@ -3194,7 +4376,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3203,9 +4385,9 @@
       </c>
       <c r="P10" s="3">
         <f>SUM(P5:P9)</f>
-        <v>1650000</v>
-      </c>
-      <c r="Q10" s="16"/>
+        <v>4283000</v>
+      </c>
+      <c r="Q10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BR\Documents\Investasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
   <si>
     <t>NO</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Qisti</t>
   </si>
   <si>
-    <t>Ilham</t>
-  </si>
-  <si>
     <t>DATA TABUNGAN REAL TANPA PROFIT</t>
   </si>
   <si>
@@ -200,13 +197,7 @@
     <t>Arif</t>
   </si>
   <si>
-    <t>Yusuf</t>
-  </si>
-  <si>
     <t>Dom</t>
-  </si>
-  <si>
-    <t>Barrur</t>
   </si>
   <si>
     <t>Indra</t>
@@ -381,7 +372,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -399,27 +409,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,13 +450,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -491,13 +488,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -510,190 +513,58 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7F84-4D00-8272-4F717962CCA1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7F84-4D00-8272-4F717962CCA1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7F84-4D00-8272-4F717962CCA1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-7F84-4D00-8272-4F717962CCA1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-7F84-4D00-8272-4F717962CCA1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
               <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="id-ID"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'tabungan+profit'!$Q$6:$Q$10</c:f>
+              <c:f>'tabungan+profit'!$Q$6:$Q$28</c:f>
               <c:numCache>
                 <c:formatCode>_("Rp"* #,##0_);_("Rp"* \(#,##0\);_("Rp"* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>7933750</c:v>
                 </c:pt>
@@ -709,27 +580,186 @@
                 <c:pt idx="4">
                   <c:v>1500000</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200000</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D300-48E2-A6A7-1E7FBCEC5CE1}"/>
+              <c16:uniqueId val="{00000000-EF54-4FA4-B35E-750C64425378}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="387124024"/>
+        <c:axId val="387124680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="387124024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387124680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387124680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387124024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -738,41 +768,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="78000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -785,24 +780,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:pattFill prst="dkDnDiag">
-      <a:fgClr>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:fgClr>
-      <a:bgClr>
-        <a:schemeClr val="lt1"/>
-      </a:bgClr>
-    </a:pattFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -865,29 +864,38 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
@@ -898,36 +906,39 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="dkDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -941,18 +952,8 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -961,64 +962,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="25000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="threePt" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="matte"/>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1027,22 +999,22 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -1051,10 +1023,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1070,21 +1042,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1094,7 +1063,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1103,14 +1072,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1119,17 +1087,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1138,14 +1106,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1157,28 +1124,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1190,17 +1151,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1209,17 +1169,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1228,17 +1188,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1247,34 +1206,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:alpha val="78000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1282,11 +1233,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1294,14 +1255,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1313,12 +1274,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1327,14 +1295,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1343,9 +1310,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1355,20 +1321,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1377,9 +1342,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1389,7 +1353,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1399,23 +1363,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA2AAB2-1B26-4D5F-85AA-27C8BBF340F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FCB0FB-374B-4238-8651-2CF1ED5AFA72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,80 +1720,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="24" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1866,8 +1830,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="24"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -2023,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>32</v>
@@ -2060,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>32</v>
@@ -2096,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>32</v>
@@ -2132,7 +2096,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>32</v>
@@ -2168,7 +2132,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>32</v>
@@ -2204,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>32</v>
@@ -2240,7 +2204,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>32</v>
@@ -2276,7 +2240,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>32</v>
@@ -2312,7 +2276,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>32</v>
@@ -2348,7 +2312,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>32</v>
@@ -2384,7 +2348,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>32</v>
@@ -2420,7 +2384,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>32</v>
@@ -2456,7 +2420,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>32</v>
@@ -2492,7 +2456,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>32</v>
@@ -2528,7 +2492,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>32</v>
@@ -2564,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>32</v>
@@ -2600,7 +2564,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>32</v>
@@ -2636,7 +2600,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>32</v>
@@ -2672,7 +2636,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>32</v>
@@ -2716,7 +2680,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2746,7 +2710,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M38" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2757,191 +2721,101 @@
         <v>28</v>
       </c>
       <c r="C39" s="11"/>
-      <c r="M39" s="19">
-        <v>2633000</v>
-      </c>
+      <c r="M39" s="19"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="9">
-        <v>25000</v>
-      </c>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="12"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="3">
-        <v>200000</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="3">
-        <v>3000000</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1425000</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="18">
-        <v>50000</v>
-      </c>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="18">
-        <v>200000</v>
-      </c>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="18">
-        <v>200000</v>
-      </c>
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="18">
-        <v>50000</v>
-      </c>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="18">
-        <v>100000</v>
-      </c>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="3">
-        <v>500000</v>
-      </c>
+      <c r="A49" s="17"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="3">
-        <v>3100000</v>
-      </c>
+      <c r="A50" s="17"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="3">
-        <v>100000</v>
-      </c>
+      <c r="A51" s="17"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="3">
-        <v>100000</v>
-      </c>
+      <c r="A52" s="17"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="3">
-        <v>100000</v>
-      </c>
+      <c r="A53" s="17"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="3">
-        <v>50000</v>
-      </c>
+      <c r="A54" s="17"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="3">
-        <v>200000</v>
-      </c>
+      <c r="A55" s="17"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="3">
-        <v>300000</v>
-      </c>
+      <c r="A56" s="17"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="3">
-        <v>200000</v>
-      </c>
+      <c r="A57" s="17"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="3">
-        <v>100000</v>
-      </c>
+      <c r="A58" s="17"/>
+      <c r="B58" s="3"/>
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="3">
-        <v>100000</v>
-      </c>
+      <c r="A59" s="17"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="3">
-        <v>50000</v>
-      </c>
+      <c r="A60" s="17"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="18">
-        <v>200000</v>
-      </c>
+      <c r="A61" s="17"/>
+      <c r="B61" s="18"/>
       <c r="M61" t="s">
         <v>27</v>
       </c>
@@ -2949,11 +2823,11 @@
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <f>SUM(B40:B61)</f>
-        <v>10350000</v>
+        <v>0</v>
       </c>
       <c r="M62" s="5">
         <f>M39+Q29+B62+N58</f>
-        <v>31232000</v>
+        <v>18249000</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -2995,135 +2869,135 @@
       <c r="Q67" s="13"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
-      <c r="I69" s="34"/>
+      <c r="I69" s="26"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
-      <c r="P69" s="30"/>
+      <c r="P69" s="28"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="13"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
       <c r="P71" s="15"/>
       <c r="Q71" s="13"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="13"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="32"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="13"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="13"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24"/>
       <c r="P73" s="15"/>
       <c r="Q73" s="13"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="13"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="32"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
       <c r="P74" s="15"/>
       <c r="Q74" s="13"/>
     </row>
@@ -3148,11 +3022,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:O68"/>
     <mergeCell ref="A66:Q66"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
@@ -3162,6 +3031,11 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3191,58 +3065,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="A1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
@@ -3279,7 +3153,7 @@
       <c r="O4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="24"/>
+      <c r="P4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -3461,7 +3335,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>32</v>
@@ -3496,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>32</v>
@@ -3531,7 +3405,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>32</v>
@@ -3566,7 +3440,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>32</v>
@@ -3601,7 +3475,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>32</v>
@@ -3636,7 +3510,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>32</v>
@@ -3671,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>32</v>
@@ -3706,7 +3580,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>32</v>
@@ -3741,7 +3615,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>32</v>
@@ -3776,7 +3650,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>32</v>
@@ -3811,7 +3685,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>32</v>
@@ -3846,7 +3720,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>32</v>
@@ -3881,7 +3755,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>32</v>
@@ -3899,7 +3773,7 @@
         <v>50000</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="28"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3916,7 +3790,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>32</v>
@@ -3934,7 +3808,7 @@
         <v>100000</v>
       </c>
       <c r="H23" s="1"/>
-      <c r="I23" s="28"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -3952,7 +3826,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>32</v>
@@ -3970,7 +3844,7 @@
         <v>50000</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="28"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -3987,7 +3861,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>32</v>
@@ -4005,7 +3879,7 @@
         <v>300000</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="28"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -4022,7 +3896,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>32</v>
@@ -4040,7 +3914,7 @@
         <v>100000</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="28"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -4057,7 +3931,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>32</v>
@@ -4075,7 +3949,7 @@
         <v>200000</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="28"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -4134,58 +4008,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="A1" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
@@ -4222,7 +4096,7 @@
       <c r="O4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="24"/>
+      <c r="P4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">

--- a/Tabungan invest.xlsx
+++ b/Tabungan invest.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barru\OneDrive\Dokumen\Invest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tabungan+profit" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
   <si>
     <t>NO</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Indra</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -244,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,45 +338,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -385,11 +394,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,9 +415,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,6 +495,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -506,7 +527,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -563,7 +584,7 @@
             <c:numRef>
               <c:f>'tabungan+profit'!$Q$6:$Q$28</c:f>
               <c:numCache>
-                <c:formatCode>_("Rp"* #,##0_);_("Rp"* \(#,##0\);_("Rp"* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>_-"Rp"* #,##0_-;\-"Rp"* #,##0_-;_-"Rp"* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>7933750</c:v>
@@ -695,7 +716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="387124680"/>
@@ -726,7 +747,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;Rp&quot;* #,##0_);_(&quot;Rp&quot;* \(#,##0\);_(&quot;Rp&quot;* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -753,7 +774,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="387124024"/>
@@ -770,6 +791,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -777,7 +799,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -812,7 +833,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1699,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,80 +1741,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="32" t="s">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="34"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1830,8 +1851,8 @@
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
@@ -2831,23 +2852,23 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
@@ -2869,28 +2890,28 @@
       <c r="Q67" s="13"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="34"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
@@ -2903,7 +2924,7 @@
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
-      <c r="P69" s="28"/>
+      <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -3022,6 +3043,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:O68"/>
     <mergeCell ref="A66:Q66"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
@@ -3031,11 +3057,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3047,8 +3068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3062,6 +3083,7 @@
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3086,37 +3108,37 @@
       <c r="Q1" s="35"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
@@ -3153,7 +3175,7 @@
       <c r="O4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="31"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
@@ -3165,18 +3187,10 @@
       <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2150000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3100000</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="7"/>
       <c r="J5" s="2"/>
@@ -3187,7 +3201,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="3">
         <f>SUM(D5:O5)</f>
-        <v>5250000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3224,6 +3238,10 @@
         <f t="shared" ref="P6:P27" si="0">SUM(D6:O6)</f>
         <v>341000</v>
       </c>
+      <c r="Q6" s="5">
+        <f>P6/2</f>
+        <v>170500</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -3646,73 +3664,73 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="36">
         <v>15</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3">
+      <c r="C19" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="39">
+        <v>0</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0</v>
+      </c>
+      <c r="F19" s="39">
+        <v>0</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="40">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="36">
         <v>16</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>200000</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3">
+      <c r="C20" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="40">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -3892,38 +3910,38 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="36">
         <v>22</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="3">
+      <c r="C26" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="39">
+        <v>0</v>
+      </c>
+      <c r="E26" s="39">
+        <v>0</v>
+      </c>
+      <c r="F26" s="39">
+        <v>0</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="40">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -3967,7 +3985,7 @@
       </c>
       <c r="P28" s="5">
         <f>SUM(P5:P27)</f>
-        <v>13966000</v>
+        <v>8316000</v>
       </c>
     </row>
   </sheetData>
@@ -4029,37 +4047,37 @@
       <c r="Q1" s="35"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
@@ -4096,7 +4114,7 @@
       <c r="O4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="31"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
